--- a/data/trans_dic/P3A$pareja-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P3A$pareja-Provincia-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.5630419301105599</v>
+        <v>0.56304193011056</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.2500841564999373</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.506849217120925</v>
+        <v>0.5043308951800061</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2070474450199764</v>
+        <v>0.2142132335838077</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.371963228151963</v>
+        <v>0.3721119610730622</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.621179757692374</v>
+        <v>0.6257723221115666</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2872318241941834</v>
+        <v>0.2956199557998239</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4441770538706719</v>
+        <v>0.4448536112586013</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4677504963979433</v>
+        <v>0.4695958176688488</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2775324004424821</v>
+        <v>0.2799068761706943</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3833723398549193</v>
+        <v>0.3868499717798444</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5815289266113258</v>
+        <v>0.5829980849668274</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3462442330870352</v>
+        <v>0.3477260965931867</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4505038710525898</v>
+        <v>0.4498858775094917</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.43379159209145</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.3051384704034266</v>
+        <v>0.3051384704034267</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.3656513567148147</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3822866973804171</v>
+        <v>0.3825976163188194</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2660539460150148</v>
+        <v>0.2690148164974481</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3349212450288741</v>
+        <v>0.3333495184348513</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4861383562407714</v>
+        <v>0.490538378964304</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3484773078031173</v>
+        <v>0.3556368454343704</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3999743117452141</v>
+        <v>0.3975258788237547</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.5065129842859424</v>
+        <v>0.5065129842859423</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.1966047205189344</v>
+        <v>0.1966047205189345</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3420453247064659</v>
+        <v>0.3420453247064658</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4435248512579836</v>
+        <v>0.4368279770189888</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1598480874263188</v>
+        <v>0.163678353315941</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3058908272767838</v>
+        <v>0.3034928372369665</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5849138256836973</v>
+        <v>0.5763615470560665</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2343855190567288</v>
+        <v>0.2351224860984679</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3805312722828244</v>
+        <v>0.3818044066919953</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2519781210180509</v>
+        <v>0.2485364405148465</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1998727943022344</v>
+        <v>0.194836812179826</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2358690940514333</v>
+        <v>0.2363669992891507</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3666492896844835</v>
+        <v>0.3613401783237001</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.279917474624838</v>
+        <v>0.2736238060177774</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3027484953481218</v>
+        <v>0.3019287284934524</v>
       </c>
     </row>
     <row r="19">
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.506776393914293</v>
+        <v>0.5067763939142931</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.3806704009215732</v>
+        <v>0.3806704009215729</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.444544117814432</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.4506757451177403</v>
+        <v>0.4539665229143274</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3352906401086059</v>
+        <v>0.3386970059508579</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4088522903688093</v>
+        <v>0.4087246895706066</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5616357910921012</v>
+        <v>0.5652291927011228</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4303852353733123</v>
+        <v>0.4339443886383584</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4800058039306024</v>
+        <v>0.4811758658464634</v>
       </c>
     </row>
     <row r="22">
@@ -897,7 +897,7 @@
         <v>0.4388542171063382</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.236392840647035</v>
+        <v>0.2363928406470351</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.3340696859478365</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3954245384754088</v>
+        <v>0.3974606102744545</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2077685095397633</v>
+        <v>0.2098913377802552</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3110195382667264</v>
+        <v>0.307277732111495</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4851126723911822</v>
+        <v>0.4809666973133754</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2641089399619342</v>
+        <v>0.2645196691748668</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3577338817023172</v>
+        <v>0.3580659546247041</v>
       </c>
     </row>
     <row r="25">
@@ -955,7 +955,7 @@
         <v>0.06347520839450517</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.3021354458592528</v>
+        <v>0.3021354458592529</v>
       </c>
     </row>
     <row r="26">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.5111848439833582</v>
+        <v>0.5096652787708925</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.04933574228842252</v>
+        <v>0.05023138022269546</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2817287907455367</v>
+        <v>0.2800997463465809</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.5885864460555281</v>
+        <v>0.5889549105909168</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.0790722794004954</v>
+        <v>0.07994936716518054</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.3250500221562708</v>
+        <v>0.3244011208040821</v>
       </c>
     </row>
     <row r="28">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.4747378781784632</v>
+        <v>0.4743216722758248</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2098479527136888</v>
+        <v>0.2117291406404459</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.3425145153727588</v>
+        <v>0.3423221061707669</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.5120166419398764</v>
+        <v>0.5114175633552323</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2334815085995864</v>
+        <v>0.2349225061719885</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.3649303721448481</v>
+        <v>0.3653319287485291</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>161606</v>
+        <v>160803</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>65440</v>
+        <v>67704</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>236162</v>
+        <v>236256</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>198060</v>
+        <v>199524</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>90783</v>
+        <v>93434</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>282011</v>
+        <v>282440</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>248210</v>
+        <v>249190</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>151670</v>
+        <v>152967</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>412946</v>
+        <v>416692</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>308587</v>
+        <v>309366</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>189220</v>
+        <v>190030</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>485256</v>
+        <v>484591</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>120567</v>
+        <v>120665</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>94485</v>
+        <v>95537</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>224571</v>
+        <v>223518</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>153320</v>
+        <v>154708</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>123757</v>
+        <v>126299</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>268191</v>
+        <v>266549</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>165499</v>
+        <v>163000</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>67450</v>
+        <v>69066</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>243216</v>
+        <v>241309</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>218258</v>
+        <v>215066</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>98902</v>
+        <v>99213</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>302563</v>
+        <v>303575</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>51701</v>
+        <v>50995</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>45754</v>
+        <v>44602</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>102391</v>
+        <v>102607</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>75229</v>
+        <v>74140</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>64078</v>
+        <v>62637</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>131423</v>
+        <v>131067</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>122001</v>
+        <v>122892</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>88433</v>
+        <v>89331</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>218514</v>
+        <v>218446</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>152039</v>
+        <v>153011</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>113514</v>
+        <v>114453</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>256542</v>
+        <v>257168</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>284582</v>
+        <v>286047</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>160409</v>
+        <v>162048</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>463962</v>
+        <v>458380</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>349129</v>
+        <v>346145</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>203907</v>
+        <v>204224</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>533647</v>
+        <v>534143</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>407962</v>
+        <v>406750</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>41014</v>
+        <v>41759</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>459050</v>
+        <v>456395</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>469734</v>
+        <v>470028</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>65735</v>
+        <v>66464</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>529637</v>
+        <v>528580</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>1676617</v>
+        <v>1675147</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>783931</v>
+        <v>790958</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>2489182</v>
+        <v>2487784</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1808273</v>
+        <v>1806158</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>872219</v>
+        <v>877602</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2652087</v>
+        <v>2655005</v>
       </c>
     </row>
     <row r="40">
